--- a/pythonProject/Book2.xlsx
+++ b/pythonProject/Book2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>Review</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>idThucAn</t>
+  </si>
+  <si>
+    <t>idNguoiDung</t>
   </si>
 </sst>
 </file>
@@ -513,19 +516,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="158.5703125" customWidth="1"/>
+    <col min="1" max="1" width="52.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,8 +539,11 @@
       <c r="C1" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -546,8 +553,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -557,8 +567,11 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -568,8 +581,11 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -579,8 +595,11 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -590,8 +609,11 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -601,8 +623,11 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -612,8 +637,11 @@
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -623,8 +651,11 @@
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -634,8 +665,11 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -643,10 +677,13 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -656,8 +693,11 @@
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -667,8 +707,11 @@
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -678,8 +721,11 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -689,8 +735,11 @@
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -700,8 +749,11 @@
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -711,8 +763,11 @@
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -720,10 +775,13 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -731,10 +789,13 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -742,10 +803,13 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -753,10 +817,13 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -764,10 +831,13 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -775,10 +845,13 @@
         <v>5</v>
       </c>
       <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -786,10 +859,13 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -797,10 +873,13 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -810,8 +889,11 @@
       <c r="C26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -821,8 +903,11 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -832,8 +917,11 @@
       <c r="C28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -843,8 +931,11 @@
       <c r="C29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -854,8 +945,11 @@
       <c r="C30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -865,8 +959,11 @@
       <c r="C31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -876,8 +973,11 @@
       <c r="C32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -887,8 +987,11 @@
       <c r="C33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -898,8 +1001,11 @@
       <c r="C34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -909,8 +1015,11 @@
       <c r="C35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -920,8 +1029,11 @@
       <c r="C36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -929,6 +1041,9 @@
         <v>3</v>
       </c>
       <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
         <v>0</v>
       </c>
     </row>
